--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Desktop\quechua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F49BF47-D53A-4D7E-9BE7-C91CCAC5A542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D40AF3-B405-4C3D-8AC0-4ABCA3C2EF72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D67E68A5-4B70-4E0B-A915-700BC53896DB}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>vivir</t>
   </si>
   <si>
-    <t>kay</t>
-  </si>
-  <si>
-    <t>estar</t>
-  </si>
-  <si>
     <t>espanol</t>
+  </si>
+  <si>
+    <t>puñuy</t>
+  </si>
+  <si>
+    <t>dormir</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
